--- a/liste_parcelles.xlsx
+++ b/liste_parcelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,32 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>parcelle 1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>parcelle 2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/liste_parcelles.xlsx
+++ b/liste_parcelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,19 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Les Grès Chatons</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/liste_parcelles.xlsx
+++ b/liste_parcelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,11 +453,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>parcelle 1</t>
+          <t>Les Grès Chatons</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -466,27 +466,79 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>parcelle 2</t>
+          <t>La fontaine des mignons</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.300000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Côte des glands</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Derrière les murs</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Montinette</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Les Grès Chatons</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Une nouvelle parcelle</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/liste_parcelles.xlsx
+++ b/liste_parcelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,97 +450,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Les Grès Chatons</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>La fontaine des mignons</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Côte des glands</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Derrière les murs</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Montinette</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Les Grès Chatons</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Une nouvelle parcelle</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/liste_parcelles.xlsx
+++ b/liste_parcelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,32 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FRANCAIS</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MATHS GEO</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
